--- a/metro_budget PowerBI.xlsx
+++ b/metro_budget PowerBI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jojuk\Documents\git\projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jojuk\Documents\git\projects\da5-power-bi-workshop-jojuka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0C54C3-3436-459A-88B2-60CA5CAE2900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B10174C-023C-41C5-8162-9507F4F8E2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="5310" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="5310" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metro_budget" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="72">
   <si>
     <t>Department</t>
   </si>
@@ -219,9 +219,6 @@
     <t>Trustee</t>
   </si>
   <si>
-    <t>Appeared on ballot 11/18. First members appointed 1/19</t>
-  </si>
-  <si>
     <t>https://www.nashville.gov/departments/finance/management-and-budget/citizens-guide-budget/learn-about-budget</t>
   </si>
   <si>
@@ -231,9 +228,6 @@
     <t>aligns with figures on pg 14 https://filetransfer.nashville.gov/portals/0/sitecontent/Finance/docs/OMB/FY17ThirdQuarterFinancialUpdate.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">as of 2017, consistently uses all allocated budgetary funds </t>
-  </si>
-  <si>
     <t>no department actual  exceeded budget  per year</t>
   </si>
   <si>
@@ -247,6 +241,15 @@
   </si>
   <si>
     <t>TOTAL BUDGET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sports Authority, as of 2017, consistently uses all allocated budgetary funds </t>
+  </si>
+  <si>
+    <t>Cmty Oversight Board Appeared on ballot 11/18. First members appointed 1/19</t>
+  </si>
+  <si>
+    <t>no duget for IT and Medical Examiner</t>
   </si>
 </sst>
 </file>
@@ -255,7 +258,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -761,9 +764,9 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="34" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="33" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1123,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="J54" sqref="J54"/>
@@ -2808,7 +2811,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B53" s="4">
         <f>SUM(B2:B52)</f>
@@ -2893,7 +2896,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2913,11 +2916,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839749DB-6610-4AC7-BE4F-97CDCF03B9ED}">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J53" sqref="J53"/>
+      <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2965,7 +2968,7 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3288,7 +3291,7 @@
         <v>-311228.08999999898</v>
       </c>
       <c r="L11" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3322,6 +3325,9 @@
       <c r="J12">
         <v>-306086.86</v>
       </c>
+      <c r="L12" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
@@ -3418,6 +3424,9 @@
       <c r="J15">
         <v>-4502589.1500000302</v>
       </c>
+      <c r="L15" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
@@ -3450,6 +3459,9 @@
       <c r="J16">
         <v>-106.999999999068</v>
       </c>
+      <c r="L16" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
@@ -3803,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4478,7 +4490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -4509,11 +4521,8 @@
       <c r="J49">
         <v>0</v>
       </c>
-      <c r="L49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -4545,7 +4554,7 @@
         <v>-98056.689999999406</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -4577,9 +4586,9 @@
         <v>-264764.74</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D52">
         <f>MAX(D2:D51)</f>
@@ -4593,22 +4602,19 @@
         <f>MAX(J2:J51)</f>
         <v>0</v>
       </c>
-      <c r="L52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D53">
         <f>MAX(D2:D48)</f>
         <v>496819.90000000497</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D54">
         <f>MIN(D2:D51)</f>
@@ -4623,7 +4629,7 @@
         <v>-21269107.77</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -4637,39 +4643,39 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
